--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2640615.931620671</v>
+        <v>-2643183.419499154</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.2830023150577</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8220524225847</v>
+        <v>344.8220524225846</v>
       </c>
       <c r="D11" t="n">
-        <v>92.42856171343956</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>361.4795307238389</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>386.4252063932885</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>391.0257380076015</v>
       </c>
       <c r="H11" t="n">
-        <v>279.8393000378531</v>
+        <v>279.839300037853</v>
       </c>
       <c r="I11" t="n">
         <v>42.51701068787236</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>101.3806056120901</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>185.8959941192019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.5887207466848</v>
       </c>
       <c r="V11" t="n">
-        <v>307.3014191217121</v>
+        <v>307.301419121712</v>
       </c>
       <c r="W11" t="n">
-        <v>328.7901293689902</v>
+        <v>40.22690107284652</v>
       </c>
       <c r="X11" t="n">
-        <v>349.2802613300462</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>124.618373044961</v>
       </c>
       <c r="G12" t="n">
-        <v>114.8455016504109</v>
+        <v>114.8455016504108</v>
       </c>
       <c r="H12" t="n">
-        <v>72.01319298474888</v>
+        <v>72.01319298474883</v>
       </c>
       <c r="I12" t="n">
-        <v>8.587624465791833</v>
+        <v>8.587624465791819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>113.2069323863958</v>
       </c>
       <c r="T12" t="n">
-        <v>171.4623327891075</v>
+        <v>171.4623327891074</v>
       </c>
       <c r="U12" t="n">
-        <v>205.3558600901588</v>
+        <v>205.3558600901587</v>
       </c>
       <c r="V12" t="n">
-        <v>212.3497478010025</v>
+        <v>212.3497478010024</v>
       </c>
       <c r="W12" t="n">
-        <v>231.2441438124968</v>
+        <v>231.2441438124967</v>
       </c>
       <c r="X12" t="n">
-        <v>185.3221458550547</v>
+        <v>185.3221458550546</v>
       </c>
       <c r="Y12" t="n">
         <v>185.2318564288815</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.3811408335145</v>
+        <v>159.3811408335144</v>
       </c>
       <c r="C13" t="n">
         <v>146.795981750205</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.1646336697895</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>124.9702086745084</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8238562829267</v>
+        <v>145.8238562829266</v>
       </c>
       <c r="H13" t="n">
-        <v>126.5170105670819</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>83.38630313085957</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.67219462618057</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>173.6556140988367</v>
       </c>
       <c r="T13" t="n">
-        <v>200.161537791301</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>265.7745745320439</v>
       </c>
       <c r="V13" t="n">
-        <v>231.6868039754052</v>
+        <v>151.9257592200989</v>
       </c>
       <c r="W13" t="n">
-        <v>147.8427244654088</v>
+        <v>266.0721589881681</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>198.1338140036719</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.2204013002518</v>
+        <v>344.2204013002516</v>
       </c>
       <c r="C14" t="n">
-        <v>326.7594514077787</v>
+        <v>326.7594514077786</v>
       </c>
       <c r="D14" t="n">
-        <v>316.1696012574541</v>
+        <v>184.2884594332161</v>
       </c>
       <c r="E14" t="n">
-        <v>343.416929709033</v>
+        <v>343.4169297090328</v>
       </c>
       <c r="F14" t="n">
-        <v>368.3626053784826</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>372.4082852902246</v>
+        <v>372.4082852902245</v>
       </c>
       <c r="H14" t="n">
-        <v>256.0943240240916</v>
+        <v>256.0943240240915</v>
       </c>
       <c r="I14" t="n">
-        <v>3.063489409697112</v>
+        <v>3.063489409697013</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.6743214249469</v>
       </c>
       <c r="T14" t="n">
-        <v>165.4045297763913</v>
+        <v>165.4045297763912</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>212.481731595673</v>
       </c>
       <c r="V14" t="n">
-        <v>289.2388181069061</v>
+        <v>289.238818106906</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>310.7275283541841</v>
       </c>
       <c r="X14" t="n">
-        <v>93.63983417208335</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>347.7244982928248</v>
+        <v>347.7244982928246</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969284</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.3185398187085</v>
+        <v>141.3185398187084</v>
       </c>
       <c r="C16" t="n">
-        <v>128.733380735399</v>
+        <v>128.7333807353989</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1020326549835</v>
+        <v>110.1020326549834</v>
       </c>
       <c r="E16" t="n">
-        <v>107.9205222833404</v>
+        <v>107.9205222833402</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9076076597024</v>
+        <v>106.9076076597023</v>
       </c>
       <c r="G16" t="n">
-        <v>127.5123678957994</v>
+        <v>105.8499727997923</v>
       </c>
       <c r="H16" t="n">
-        <v>106.241574551092</v>
+        <v>106.2415745510918</v>
       </c>
       <c r="I16" t="n">
-        <v>57.83898004660928</v>
+        <v>57.83898004660916</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.41871230681851</v>
+        <v>50.41871230681839</v>
       </c>
       <c r="S16" t="n">
-        <v>151.2555849682131</v>
+        <v>151.255584968213</v>
       </c>
       <c r="T16" t="n">
-        <v>181.0355089129404</v>
+        <v>181.0355089129403</v>
       </c>
       <c r="U16" t="n">
-        <v>247.6983978423841</v>
+        <v>247.6983978423839</v>
       </c>
       <c r="V16" t="n">
-        <v>213.6242029605992</v>
+        <v>213.6242029605991</v>
       </c>
       <c r="W16" t="n">
-        <v>46.27594988848607</v>
+        <v>248.0095579733621</v>
       </c>
       <c r="X16" t="n">
-        <v>187.1962150258083</v>
+        <v>187.1962150258082</v>
       </c>
       <c r="Y16" t="n">
-        <v>180.071212988866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C17" t="n">
         <v>267.5881715429027</v>
@@ -1850,7 +1850,7 @@
         <v>256.9983213925781</v>
       </c>
       <c r="E17" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F17" t="n">
         <v>309.1913255136066</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007098</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T17" t="n">
         <v>106.2332499115153</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V17" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W17" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
         <v>272.0463804503642</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U18" t="n">
         <v>225.7871683969286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383247</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010753</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846435</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482642</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G19" t="n">
-        <v>68.3410880309234</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621596</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333707</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
         <v>188.527117977508</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W19" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
         <v>128.0249351609323</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007098</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W20" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247807</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383247</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010753</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846435</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482642</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G22" t="n">
-        <v>68.3410880309234</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621596</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333707</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W22" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.503041560071</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307972</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W23" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="24">
@@ -2409,7 +2409,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H24" t="n">
         <v>89.59687541851115</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383247</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010753</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846435</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482642</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G25" t="n">
-        <v>68.3410880309234</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621596</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333707</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480644</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W25" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>305.4999607837986</v>
+        <v>305.4999607837985</v>
       </c>
       <c r="C26" t="n">
-        <v>288.0390108913256</v>
+        <v>288.0390108913255</v>
       </c>
       <c r="D26" t="n">
-        <v>277.449160741001</v>
+        <v>277.4491607410009</v>
       </c>
       <c r="E26" t="n">
-        <v>304.6964891925798</v>
+        <v>304.6964891925797</v>
       </c>
       <c r="F26" t="n">
-        <v>329.6421648620295</v>
+        <v>329.6421648620294</v>
       </c>
       <c r="G26" t="n">
-        <v>333.6878447737715</v>
+        <v>333.6878447737714</v>
       </c>
       <c r="H26" t="n">
-        <v>217.3738835076385</v>
+        <v>217.3738835076384</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.95388090849383</v>
+        <v>31.95388090849377</v>
       </c>
       <c r="T26" t="n">
-        <v>126.6840892599382</v>
+        <v>126.6840892599381</v>
       </c>
       <c r="U26" t="n">
-        <v>173.76129107922</v>
+        <v>173.7612910792199</v>
       </c>
       <c r="V26" t="n">
-        <v>250.5183775904529</v>
+        <v>250.5183775904528</v>
       </c>
       <c r="W26" t="n">
         <v>272.007087837731</v>
       </c>
       <c r="X26" t="n">
-        <v>292.4972197987871</v>
+        <v>292.497219798787</v>
       </c>
       <c r="Y26" t="n">
-        <v>309.0040577763716</v>
+        <v>309.0040577763715</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851106</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.5980993022553</v>
+        <v>102.5980993022552</v>
       </c>
       <c r="C28" t="n">
-        <v>90.01294021894584</v>
+        <v>90.01294021894577</v>
       </c>
       <c r="D28" t="n">
-        <v>71.38159213853037</v>
+        <v>71.38159213853029</v>
       </c>
       <c r="E28" t="n">
-        <v>69.20008176688718</v>
+        <v>69.20008176688711</v>
       </c>
       <c r="F28" t="n">
-        <v>68.18716714324925</v>
+        <v>68.18716714324918</v>
       </c>
       <c r="G28" t="n">
-        <v>88.79192737934623</v>
+        <v>88.79192737934616</v>
       </c>
       <c r="H28" t="n">
-        <v>67.52113403463879</v>
+        <v>67.52113403463872</v>
       </c>
       <c r="I28" t="n">
-        <v>19.11853953015611</v>
+        <v>19.11853953015603</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.69827179036534</v>
+        <v>11.69827179036527</v>
       </c>
       <c r="S28" t="n">
-        <v>112.5351444517599</v>
+        <v>112.5351444517598</v>
       </c>
       <c r="T28" t="n">
-        <v>142.3150683964872</v>
+        <v>142.3150683964871</v>
       </c>
       <c r="U28" t="n">
-        <v>208.9779573259309</v>
+        <v>208.9779573259308</v>
       </c>
       <c r="V28" t="n">
-        <v>174.903762444146</v>
+        <v>174.9037624441459</v>
       </c>
       <c r="W28" t="n">
-        <v>209.289117456909</v>
+        <v>209.2891174569089</v>
       </c>
       <c r="X28" t="n">
-        <v>148.4757745093552</v>
+        <v>148.4757745093551</v>
       </c>
       <c r="Y28" t="n">
-        <v>141.3507724724128</v>
+        <v>141.3507724724127</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>50.01648192329981</v>
+        <v>50.01648192329984</v>
       </c>
       <c r="T29" t="n">
         <v>144.7466902747441</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851117</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D31" t="n">
-        <v>89.44419315333634</v>
+        <v>89.44419315333636</v>
       </c>
       <c r="E31" t="n">
-        <v>87.26268278169316</v>
+        <v>87.26268278169317</v>
       </c>
       <c r="F31" t="n">
-        <v>86.24976815805523</v>
+        <v>86.24976815805525</v>
       </c>
       <c r="G31" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H31" t="n">
-        <v>85.58373504944477</v>
+        <v>85.58373504944478</v>
       </c>
       <c r="I31" t="n">
-        <v>37.18114054496208</v>
+        <v>37.1811405449621</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.76087280517132</v>
+        <v>29.76087280517133</v>
       </c>
       <c r="S31" t="n">
         <v>130.5977454665659</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.01648192329984</v>
+        <v>50.01648192329981</v>
       </c>
       <c r="T32" t="n">
         <v>144.7466902747441</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247744</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3190,22 +3190,22 @@
         <v>108.0755412337518</v>
       </c>
       <c r="D34" t="n">
-        <v>89.44419315333636</v>
+        <v>89.44419315333634</v>
       </c>
       <c r="E34" t="n">
-        <v>87.26268278169317</v>
+        <v>87.26268278169316</v>
       </c>
       <c r="F34" t="n">
-        <v>86.24976815805525</v>
+        <v>86.24976815805523</v>
       </c>
       <c r="G34" t="n">
         <v>106.8545283941522</v>
       </c>
       <c r="H34" t="n">
-        <v>85.58373504944478</v>
+        <v>85.58373504944477</v>
       </c>
       <c r="I34" t="n">
-        <v>37.1811405449621</v>
+        <v>37.18114054496208</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>29.76087280517133</v>
+        <v>29.76087280517132</v>
       </c>
       <c r="S34" t="n">
         <v>130.5977454665659</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247762</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,10 +3961,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
         <v>128.0249351609322</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1185.391840796276</v>
+        <v>1877.33364149067</v>
       </c>
       <c r="C11" t="n">
-        <v>837.0867373391194</v>
+        <v>1529.028538033514</v>
       </c>
       <c r="D11" t="n">
-        <v>743.7245537901905</v>
+        <v>1529.028538033514</v>
       </c>
       <c r="E11" t="n">
-        <v>378.5937146752016</v>
+        <v>1163.897698918525</v>
       </c>
       <c r="F11" t="n">
-        <v>378.5937146752016</v>
+        <v>773.5692076121727</v>
       </c>
       <c r="G11" t="n">
         <v>378.5937146752016</v>
@@ -5036,55 +5036,55 @@
         <v>95.92775504100655</v>
       </c>
       <c r="I11" t="n">
-        <v>52.98127959871129</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="J11" t="n">
-        <v>195.2389893135605</v>
+        <v>195.238989313561</v>
       </c>
       <c r="K11" t="n">
-        <v>459.1849379150979</v>
+        <v>459.1849379150981</v>
       </c>
       <c r="L11" t="n">
         <v>823.5349887105654</v>
       </c>
       <c r="M11" t="n">
-        <v>1260.614060403607</v>
+        <v>1260.614060403606</v>
       </c>
       <c r="N11" t="n">
-        <v>1709.379336807576</v>
+        <v>1709.379336807575</v>
       </c>
       <c r="O11" t="n">
         <v>2119.800400583365</v>
       </c>
       <c r="P11" t="n">
-        <v>2435.584282230147</v>
+        <v>2435.584282230145</v>
       </c>
       <c r="Q11" t="n">
-        <v>2624.552079607773</v>
+        <v>2624.552079607772</v>
       </c>
       <c r="R11" t="n">
         <v>2649.063979935564</v>
       </c>
       <c r="S11" t="n">
-        <v>2546.659327802141</v>
+        <v>2649.063979935564</v>
       </c>
       <c r="T11" t="n">
-        <v>2546.659327802141</v>
+        <v>2461.290248502026</v>
       </c>
       <c r="U11" t="n">
-        <v>2546.659327802141</v>
+        <v>2228.3723487579</v>
       </c>
       <c r="V11" t="n">
-        <v>2236.253853941826</v>
+        <v>1917.966874897585</v>
       </c>
       <c r="W11" t="n">
-        <v>1904.142612154967</v>
+        <v>1877.33364149067</v>
       </c>
       <c r="X11" t="n">
-        <v>1551.334267377142</v>
+        <v>1877.33364149067</v>
       </c>
       <c r="Y11" t="n">
-        <v>1551.334267377142</v>
+        <v>1877.33364149067</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>796.9316019310339</v>
+        <v>796.9316019310334</v>
       </c>
       <c r="C12" t="n">
-        <v>643.1359861331623</v>
+        <v>643.1359861331619</v>
       </c>
       <c r="D12" t="n">
-        <v>514.8589899551664</v>
+        <v>514.858989955166</v>
       </c>
       <c r="E12" t="n">
-        <v>376.2789484329663</v>
+        <v>376.2789484329659</v>
       </c>
       <c r="F12" t="n">
-        <v>250.4018039431066</v>
+        <v>250.4018039431063</v>
       </c>
       <c r="G12" t="n">
-        <v>134.3962467204696</v>
+        <v>134.3962467204691</v>
       </c>
       <c r="H12" t="n">
-        <v>61.65564774597577</v>
+        <v>61.65564774597574</v>
       </c>
       <c r="I12" t="n">
-        <v>52.98127959871129</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="J12" t="n">
-        <v>139.1374809399457</v>
+        <v>139.1374809399456</v>
       </c>
       <c r="K12" t="n">
-        <v>350.1891030796877</v>
+        <v>350.1891030796875</v>
       </c>
       <c r="L12" t="n">
-        <v>673.3192360231915</v>
+        <v>673.3192360231913</v>
       </c>
       <c r="M12" t="n">
         <v>1066.37354596505</v>
@@ -5133,37 +5133,37 @@
         <v>1483.703618701677</v>
       </c>
       <c r="O12" t="n">
-        <v>1844.984201582348</v>
+        <v>1844.984201582347</v>
       </c>
       <c r="P12" t="n">
-        <v>2119.607519575157</v>
+        <v>2119.607519575156</v>
       </c>
       <c r="Q12" t="n">
-        <v>2259.978933382945</v>
+        <v>2259.978933382944</v>
       </c>
       <c r="R12" t="n">
-        <v>2261.836009470976</v>
+        <v>2261.836009470975</v>
       </c>
       <c r="S12" t="n">
-        <v>2147.485572717041</v>
+        <v>2147.48557271704</v>
       </c>
       <c r="T12" t="n">
-        <v>1974.291297172488</v>
+        <v>1974.291297172487</v>
       </c>
       <c r="U12" t="n">
-        <v>1766.861135465256</v>
+        <v>1766.861135465255</v>
       </c>
       <c r="V12" t="n">
-        <v>1552.366440716769</v>
+        <v>1552.366440716768</v>
       </c>
       <c r="W12" t="n">
         <v>1318.786497471822</v>
       </c>
       <c r="X12" t="n">
-        <v>1131.592410749545</v>
+        <v>1131.592410749544</v>
       </c>
       <c r="Y12" t="n">
-        <v>944.4895254678465</v>
+        <v>944.4895254678459</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.5804227614116</v>
+        <v>604.2486335153067</v>
       </c>
       <c r="C13" t="n">
-        <v>412.30165331676</v>
+        <v>455.9698640706551</v>
       </c>
       <c r="D13" t="n">
-        <v>412.30165331676</v>
+        <v>326.5106381415749</v>
       </c>
       <c r="E13" t="n">
-        <v>412.30165331676</v>
+        <v>326.5106381415749</v>
       </c>
       <c r="F13" t="n">
-        <v>412.30165331676</v>
+        <v>200.27810412692</v>
       </c>
       <c r="G13" t="n">
-        <v>265.0048287885512</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="H13" t="n">
-        <v>137.2098686197816</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="I13" t="n">
-        <v>52.98127959871129</v>
+        <v>52.98127959871128</v>
       </c>
       <c r="J13" t="n">
-        <v>100.9298691497005</v>
+        <v>100.9298691497004</v>
       </c>
       <c r="K13" t="n">
         <v>296.536357489119</v>
       </c>
       <c r="L13" t="n">
-        <v>596.7097501100704</v>
+        <v>596.7097501100703</v>
       </c>
       <c r="M13" t="n">
-        <v>922.489042016132</v>
+        <v>922.4890420161316</v>
       </c>
       <c r="N13" t="n">
-        <v>1246.438059432375</v>
+        <v>1246.438059432374</v>
       </c>
       <c r="O13" t="n">
         <v>1531.186681524062</v>
@@ -5218,31 +5218,31 @@
         <v>1754.239734500396</v>
       </c>
       <c r="Q13" t="n">
-        <v>1831.463847329786</v>
+        <v>1831.463847329785</v>
       </c>
       <c r="R13" t="n">
-        <v>1750.986883060917</v>
+        <v>1831.463847329785</v>
       </c>
       <c r="S13" t="n">
-        <v>1575.57717184997</v>
+        <v>1656.054136118839</v>
       </c>
       <c r="T13" t="n">
-        <v>1373.393800343606</v>
+        <v>1656.054136118839</v>
       </c>
       <c r="U13" t="n">
-        <v>1104.934634149622</v>
+        <v>1387.594969924856</v>
       </c>
       <c r="V13" t="n">
-        <v>870.9075594269906</v>
+        <v>1234.134607076271</v>
       </c>
       <c r="W13" t="n">
-        <v>721.5714741083959</v>
+        <v>965.3748505225656</v>
       </c>
       <c r="X13" t="n">
-        <v>721.5714741083959</v>
+        <v>965.3748505225656</v>
       </c>
       <c r="Y13" t="n">
-        <v>721.5714741083959</v>
+        <v>765.2396848622909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2072.850183580428</v>
+        <v>1567.553469234245</v>
       </c>
       <c r="C14" t="n">
-        <v>1742.790131653378</v>
+        <v>1237.493417307196</v>
       </c>
       <c r="D14" t="n">
-        <v>1423.42689805999</v>
+        <v>1051.343458283745</v>
       </c>
       <c r="E14" t="n">
-        <v>1076.541110475109</v>
+        <v>704.4576706988637</v>
       </c>
       <c r="F14" t="n">
-        <v>704.4576706988635</v>
+        <v>704.4576706988637</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2876855572226</v>
+        <v>328.2876855572227</v>
       </c>
       <c r="H14" t="n">
-        <v>69.60655017935225</v>
+        <v>69.6065501793523</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810562</v>
@@ -5294,34 +5294,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3254.217618149629</v>
       </c>
       <c r="T14" t="n">
-        <v>3158.530539006756</v>
+        <v>3087.142335547214</v>
       </c>
       <c r="U14" t="n">
-        <v>3158.530539006756</v>
+        <v>2872.514323834413</v>
       </c>
       <c r="V14" t="n">
-        <v>2866.370116676549</v>
+        <v>2580.353901504205</v>
       </c>
       <c r="W14" t="n">
-        <v>2866.370116676549</v>
+        <v>2266.487711247454</v>
       </c>
       <c r="X14" t="n">
-        <v>2771.784425593637</v>
+        <v>2266.487711247454</v>
       </c>
       <c r="Y14" t="n">
-        <v>2420.547558631187</v>
+        <v>1915.250844285005</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>819.2964253482704</v>
+        <v>797.4152181805856</v>
       </c>
       <c r="C16" t="n">
-        <v>689.262707433726</v>
+        <v>667.3815002660413</v>
       </c>
       <c r="D16" t="n">
-        <v>578.0485330347526</v>
+        <v>556.1673258670681</v>
       </c>
       <c r="E16" t="n">
-        <v>469.0379044657219</v>
+        <v>447.1566972980376</v>
       </c>
       <c r="F16" t="n">
-        <v>361.0504219811741</v>
+        <v>339.1692148134898</v>
       </c>
       <c r="G16" t="n">
-        <v>232.2500503692554</v>
+        <v>232.2500503692551</v>
       </c>
       <c r="H16" t="n">
-        <v>124.9353286004756</v>
+        <v>124.9353286004754</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>149.7630548387156</v>
       </c>
       <c r="K16" t="n">
-        <v>391.8785437471884</v>
+        <v>391.8785437471886</v>
       </c>
       <c r="L16" t="n">
-        <v>746.566648155281</v>
+        <v>746.5666481552813</v>
       </c>
       <c r="M16" t="n">
-        <v>1128.851999714426</v>
+        <v>1128.851999714427</v>
       </c>
       <c r="N16" t="n">
         <v>1508.388682379888</v>
@@ -5455,31 +5455,31 @@
         <v>2116.582393653154</v>
       </c>
       <c r="Q16" t="n">
-        <v>2232.320995765265</v>
+        <v>2232.320995765266</v>
       </c>
       <c r="R16" t="n">
-        <v>2181.393003536155</v>
+        <v>2181.393003536156</v>
       </c>
       <c r="S16" t="n">
-        <v>2028.609584376344</v>
+        <v>2028.609584376345</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.745433959232</v>
+        <v>1845.745433959234</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.545032098238</v>
+        <v>1595.54503209824</v>
       </c>
       <c r="V16" t="n">
-        <v>1379.763008905714</v>
+        <v>1379.763008905716</v>
       </c>
       <c r="W16" t="n">
-        <v>1333.01962517997</v>
+        <v>1129.248303882118</v>
       </c>
       <c r="X16" t="n">
-        <v>1143.932539295315</v>
+        <v>940.1612179974627</v>
       </c>
       <c r="Y16" t="n">
-        <v>962.0424251651477</v>
+        <v>940.1612179974627</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D17" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G17" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170932</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630295</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245371</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159873</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919202</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962293</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K19" t="n">
-        <v>273.3535972631171</v>
+        <v>371.3804471090251</v>
       </c>
       <c r="L19" t="n">
-        <v>525.7713142112982</v>
+        <v>623.7981640572062</v>
       </c>
       <c r="M19" t="n">
-        <v>789.9116685363199</v>
+        <v>887.9385183822278</v>
       </c>
       <c r="N19" t="n">
-        <v>961.2205055661675</v>
+        <v>1155.955228437899</v>
       </c>
       <c r="O19" t="n">
-        <v>1195.846727810181</v>
+        <v>1293.873577656089</v>
       </c>
       <c r="P19" t="n">
-        <v>1391.505603588764</v>
+        <v>1468.389729577967</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936509</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304679</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673505</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431765</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734897</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G20" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
-        <v>3051.821232515857</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V20" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170933</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630297</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245372</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159873</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919202</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G22" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>175.0427429954467</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>370.0614702889409</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L22" t="n">
-        <v>622.479187237122</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M22" t="n">
-        <v>886.6195415621437</v>
+        <v>886.6195415621439</v>
       </c>
       <c r="N22" t="n">
         <v>1154.636251617815</v>
       </c>
       <c r="O22" t="n">
-        <v>1292.554600836005</v>
+        <v>1378.103768707685</v>
       </c>
       <c r="P22" t="n">
-        <v>1391.505603588764</v>
+        <v>1477.054771460443</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219656</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304681</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673507</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431766</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734898</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="23">
@@ -5969,64 +5969,64 @@
         <v>1440.850850103806</v>
       </c>
       <c r="D23" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G23" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M23" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U23" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X23" t="n">
         <v>2290.538235362621</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228008</v>
@@ -6072,7 +6072,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170932</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630295</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245371</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159873</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919202</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404824</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226751</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>155.2189959588276</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K25" t="n">
-        <v>350.2377232523218</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L25" t="n">
-        <v>602.6554402005028</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M25" t="n">
-        <v>770.0879214997005</v>
+        <v>789.9116685363201</v>
       </c>
       <c r="N25" t="n">
-        <v>941.396758529548</v>
+        <v>961.2205055661676</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.022980773562</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552144</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936509</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818986</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363025</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062512</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304679</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673505</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431765</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734897</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1840.988531507979</v>
+        <v>1840.988531507978</v>
       </c>
       <c r="C26" t="n">
         <v>1550.040035658155</v>
       </c>
       <c r="D26" t="n">
-        <v>1269.788358141993</v>
+        <v>1269.788358141992</v>
       </c>
       <c r="E26" t="n">
-        <v>962.0141266343363</v>
+        <v>962.0141266343362</v>
       </c>
       <c r="F26" t="n">
         <v>629.0422429353166</v>
       </c>
       <c r="G26" t="n">
-        <v>291.9838138709014</v>
+        <v>291.9838138709013</v>
       </c>
       <c r="H26" t="n">
-        <v>72.41423457025641</v>
+        <v>72.4142345702564</v>
       </c>
       <c r="I26" t="n">
-        <v>72.41423457025641</v>
+        <v>107.7146161659449</v>
       </c>
       <c r="J26" t="n">
-        <v>261.2933655292819</v>
+        <v>373.0552891958557</v>
       </c>
       <c r="K26" t="n">
-        <v>595.1127392191283</v>
+        <v>731.3934438429337</v>
       </c>
       <c r="L26" t="n">
-        <v>1105.966115020458</v>
+        <v>1182.427657091343</v>
       </c>
       <c r="M26" t="n">
-        <v>1639.498019692383</v>
+        <v>1715.959561763267</v>
       </c>
       <c r="N26" t="n">
-        <v>2186.276836751165</v>
+        <v>2262.73837882205</v>
       </c>
       <c r="O26" t="n">
-        <v>2689.249307630502</v>
+        <v>2765.710849701386</v>
       </c>
       <c r="P26" t="n">
-        <v>3160.485216058566</v>
+        <v>3160.485216058565</v>
       </c>
       <c r="Q26" t="n">
-        <v>3485.233119885133</v>
+        <v>3485.233119885132</v>
       </c>
       <c r="R26" t="n">
-        <v>3620.711728512821</v>
+        <v>3620.71172851282</v>
       </c>
       <c r="S26" t="n">
         <v>3588.435081130503</v>
       </c>
       <c r="T26" t="n">
-        <v>3460.471354605314</v>
+        <v>3460.471354605313</v>
       </c>
       <c r="U26" t="n">
-        <v>3284.954898969738</v>
+        <v>3284.954898969737</v>
       </c>
       <c r="V26" t="n">
-        <v>3031.906032716755</v>
+        <v>3031.906032716754</v>
       </c>
       <c r="W26" t="n">
-        <v>2757.151398537229</v>
+        <v>2757.151398537228</v>
       </c>
       <c r="X26" t="n">
-        <v>2461.699661366737</v>
+        <v>2461.699661366736</v>
       </c>
       <c r="Y26" t="n">
-        <v>2149.574350481513</v>
+        <v>2149.574350481512</v>
       </c>
     </row>
     <row r="27">
@@ -6282,25 +6282,25 @@
         <v>947.4459726191815</v>
       </c>
       <c r="C27" t="n">
-        <v>772.9929433380546</v>
+        <v>772.9929433380545</v>
       </c>
       <c r="D27" t="n">
-        <v>624.0585336768033</v>
+        <v>624.0585336768032</v>
       </c>
       <c r="E27" t="n">
-        <v>464.8210786713479</v>
+        <v>464.8210786713477</v>
       </c>
       <c r="F27" t="n">
-        <v>318.2865206982328</v>
+        <v>318.2865206982327</v>
       </c>
       <c r="G27" t="n">
-        <v>181.9234205308509</v>
+        <v>181.9234205308508</v>
       </c>
       <c r="H27" t="n">
-        <v>91.42152616871846</v>
+        <v>91.42152616871843</v>
       </c>
       <c r="I27" t="n">
-        <v>72.41423457025641</v>
+        <v>72.4142345702564</v>
       </c>
       <c r="J27" t="n">
         <v>166.0915040608737</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.4176509457652</v>
+        <v>551.4176509457648</v>
       </c>
       <c r="C28" t="n">
-        <v>460.4954891084462</v>
+        <v>460.4954891084458</v>
       </c>
       <c r="D28" t="n">
-        <v>388.3928707866984</v>
+        <v>388.392870786698</v>
       </c>
       <c r="E28" t="n">
-        <v>318.4937982948932</v>
+        <v>318.4937982948929</v>
       </c>
       <c r="F28" t="n">
-        <v>249.6178718875707</v>
+        <v>249.6178718875705</v>
       </c>
       <c r="G28" t="n">
-        <v>159.9290563528775</v>
+        <v>159.9290563528774</v>
       </c>
       <c r="H28" t="n">
-        <v>91.72589066132319</v>
+        <v>91.72589066132309</v>
       </c>
       <c r="I28" t="n">
-        <v>72.41423457025641</v>
+        <v>72.4142345702564</v>
       </c>
       <c r="J28" t="n">
-        <v>160.6985301785811</v>
+        <v>193.9984090880772</v>
       </c>
       <c r="K28" t="n">
-        <v>335.4709265171366</v>
+        <v>474.4471341078388</v>
       </c>
       <c r="L28" t="n">
-        <v>567.642312510379</v>
+        <v>706.6185201010812</v>
       </c>
       <c r="M28" t="n">
-        <v>988.2609001808132</v>
+        <v>950.5125434711642</v>
       </c>
       <c r="N28" t="n">
-        <v>1236.031279281546</v>
+        <v>1198.282922571897</v>
       </c>
       <c r="O28" t="n">
-        <v>1551.414683712515</v>
+        <v>1412.662813860972</v>
       </c>
       <c r="P28" t="n">
-        <v>1726.827228536159</v>
+        <v>1662.137699742184</v>
       </c>
       <c r="Q28" t="n">
-        <v>1816.209537965585</v>
+        <v>1816.209537965584</v>
       </c>
       <c r="R28" t="n">
-        <v>1804.393101813701</v>
+        <v>1804.3931018137</v>
       </c>
       <c r="S28" t="n">
-        <v>1690.721238731115</v>
+        <v>1690.721238731114</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.968644391229</v>
+        <v>1546.968644391228</v>
       </c>
       <c r="U28" t="n">
-        <v>1335.879798607461</v>
+        <v>1335.87979860746</v>
       </c>
       <c r="V28" t="n">
         <v>1159.209331492161</v>
       </c>
       <c r="W28" t="n">
-        <v>947.8061825457887</v>
+        <v>947.806182545788</v>
       </c>
       <c r="X28" t="n">
-        <v>797.8306527383593</v>
+        <v>797.8306527383586</v>
       </c>
       <c r="Y28" t="n">
-        <v>655.052094685417</v>
+        <v>655.0520946854165</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1347.981436128166</v>
       </c>
       <c r="E29" t="n">
-        <v>1021.962153090403</v>
+        <v>1021.962153090402</v>
       </c>
       <c r="F29" t="n">
-        <v>670.7452178612759</v>
+        <v>670.7452178612757</v>
       </c>
       <c r="G29" t="n">
         <v>315.4417372667533</v>
@@ -6461,10 +6461,10 @@
         <v>95.04551302703183</v>
       </c>
       <c r="J29" t="n">
-        <v>342.5042110522841</v>
+        <v>342.5042110522845</v>
       </c>
       <c r="K29" t="n">
-        <v>734.903151808358</v>
+        <v>734.9031518083582</v>
       </c>
       <c r="L29" t="n">
         <v>1244.516932122994</v>
@@ -6494,10 +6494,10 @@
         <v>3684.624844832343</v>
       </c>
       <c r="U29" t="n">
-        <v>3490.86333766666</v>
+        <v>3490.863337666661</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.56941988357</v>
+        <v>3219.569419883571</v>
       </c>
       <c r="W29" t="n">
         <v>2926.569734173937</v>
@@ -6534,7 +6534,7 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H30" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I30" t="n">
         <v>77.62710643600128</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.3458835222596</v>
+        <v>684.3458835222597</v>
       </c>
       <c r="C31" t="n">
-        <v>575.1786701548334</v>
+        <v>575.1786701548335</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8310003029785</v>
+        <v>484.8310003029786</v>
       </c>
       <c r="E31" t="n">
         <v>396.6868762810662</v>
@@ -6628,16 +6628,16 @@
         <v>819.0354214789911</v>
       </c>
       <c r="M31" t="n">
-        <v>1221.772034144767</v>
+        <v>1045.047469844416</v>
       </c>
       <c r="N31" t="n">
-        <v>1621.759977916859</v>
+        <v>1328.057137607774</v>
       </c>
       <c r="O31" t="n">
-        <v>1818.257894201276</v>
+        <v>1685.966303594415</v>
       </c>
       <c r="P31" t="n">
-        <v>1977.153371094301</v>
+        <v>1977.153371094302</v>
       </c>
       <c r="Q31" t="n">
         <v>2113.343234313043</v>
@@ -6661,10 +6661,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X31" t="n">
-        <v>967.2489883750677</v>
+        <v>967.2489883750678</v>
       </c>
       <c r="Y31" t="n">
-        <v>806.2253787920184</v>
+        <v>806.2253787920185</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1955.671712554367</v>
+        <v>1955.671712554366</v>
       </c>
       <c r="C32" t="n">
         <v>1646.478165174436</v>
@@ -6686,7 +6686,7 @@
         <v>1021.962153090403</v>
       </c>
       <c r="F32" t="n">
-        <v>670.7452178612762</v>
+        <v>670.7452178612759</v>
       </c>
       <c r="G32" t="n">
         <v>315.4417372667533</v>
@@ -6695,7 +6695,7 @@
         <v>77.62710643600128</v>
       </c>
       <c r="I32" t="n">
-        <v>95.04551302703183</v>
+        <v>95.0455130270318</v>
       </c>
       <c r="J32" t="n">
         <v>342.5042110522845</v>
@@ -6719,7 +6719,7 @@
         <v>3456.892759355125</v>
       </c>
       <c r="Q32" t="n">
-        <v>3763.758688177035</v>
+        <v>3763.758688177034</v>
       </c>
       <c r="R32" t="n">
         <v>3881.355321800064</v>
@@ -6728,7 +6728,7 @@
         <v>3830.83362288764</v>
       </c>
       <c r="T32" t="n">
-        <v>3684.624844832344</v>
+        <v>3684.624844832343</v>
       </c>
       <c r="U32" t="n">
         <v>3490.863337666661</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>952.6588444849265</v>
+        <v>952.6588444849266</v>
       </c>
       <c r="C33" t="n">
-        <v>778.2058152037995</v>
+        <v>778.2058152037996</v>
       </c>
       <c r="D33" t="n">
-        <v>629.2714055425482</v>
+        <v>629.2714055425483</v>
       </c>
       <c r="E33" t="n">
-        <v>470.0339505370927</v>
+        <v>470.0339505370928</v>
       </c>
       <c r="F33" t="n">
         <v>323.4993925639777</v>
@@ -6771,7 +6771,7 @@
         <v>187.1362923965958</v>
       </c>
       <c r="H33" t="n">
-        <v>96.63439803446335</v>
+        <v>96.63439803446332</v>
       </c>
       <c r="I33" t="n">
         <v>77.62710643600128</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>684.3458835222597</v>
+        <v>684.3458835222596</v>
       </c>
       <c r="C34" t="n">
-        <v>575.1786701548335</v>
+        <v>575.1786701548334</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8310003029786</v>
+        <v>484.8310003029785</v>
       </c>
       <c r="E34" t="n">
         <v>396.6868762810662</v>
@@ -6859,22 +6859,22 @@
         <v>181.3293059491641</v>
       </c>
       <c r="K34" t="n">
-        <v>443.8960559642677</v>
+        <v>338.2197272830617</v>
       </c>
       <c r="L34" t="n">
-        <v>819.0354214789911</v>
+        <v>713.3590927977851</v>
       </c>
       <c r="M34" t="n">
-        <v>1221.772034144767</v>
+        <v>1116.095705463561</v>
       </c>
       <c r="N34" t="n">
-        <v>1621.759977916859</v>
+        <v>1516.083649235653</v>
       </c>
       <c r="O34" t="n">
-        <v>1818.257894201276</v>
+        <v>1873.992815222294</v>
       </c>
       <c r="P34" t="n">
-        <v>1977.153371094302</v>
+        <v>2041.842899888275</v>
       </c>
       <c r="Q34" t="n">
         <v>2113.343234313043</v>
@@ -6898,10 +6898,10 @@
         <v>1135.469569712604</v>
       </c>
       <c r="X34" t="n">
-        <v>967.2489883750678</v>
+        <v>967.2489883750677</v>
       </c>
       <c r="Y34" t="n">
-        <v>806.2253787920185</v>
+        <v>806.2253787920184</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218377</v>
+        <v>66.51211643218559</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391211</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810575</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7020,28 +7020,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7053,7 +7053,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0634411854744</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M37" t="n">
-        <v>693.2037955104961</v>
+        <v>875.4608364080003</v>
       </c>
       <c r="N37" t="n">
-        <v>961.2205055661675</v>
+        <v>1046.769673437848</v>
       </c>
       <c r="O37" t="n">
-        <v>1195.846727810181</v>
+        <v>1184.688022656037</v>
       </c>
       <c r="P37" t="n">
         <v>1380.34689843462</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S37" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7172,25 +7172,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052369</v>
@@ -7202,10 +7202,10 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746128</v>
@@ -7214,10 +7214,10 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404823</v>
@@ -7330,52 +7330,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L40" t="n">
-        <v>429.0634411854744</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M40" t="n">
-        <v>693.2037955104961</v>
+        <v>886.6195415621437</v>
       </c>
       <c r="N40" t="n">
-        <v>961.2205055661675</v>
+        <v>1143.477546463672</v>
       </c>
       <c r="O40" t="n">
-        <v>1195.846727810181</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P40" t="n">
-        <v>1391.505603588764</v>
+        <v>1477.054771460444</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,7 +7394,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307332</v>
@@ -7403,16 +7403,16 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7421,7 +7421,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7430,31 +7430,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7479,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>175.0427429954467</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>370.061470288941</v>
       </c>
       <c r="L43" t="n">
-        <v>429.0634411854744</v>
+        <v>622.4791872371221</v>
       </c>
       <c r="M43" t="n">
-        <v>682.0450903563519</v>
+        <v>875.4608364080003</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120233</v>
+        <v>1046.769673437848</v>
       </c>
       <c r="O43" t="n">
         <v>1184.688022656037</v>
@@ -7588,31 +7588,31 @@
         <v>1380.34689843462</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7676,7 +7676,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K46" t="n">
-        <v>371.3804471090253</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L46" t="n">
-        <v>623.7981640572065</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M46" t="n">
-        <v>887.9385183822282</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N46" t="n">
-        <v>1134.812504581194</v>
+        <v>1057.928378591992</v>
       </c>
       <c r="O46" t="n">
-        <v>1369.438726825207</v>
+        <v>1292.554600836005</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577966</v>
+        <v>1391.505603588764</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -7840,16 +7840,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304665</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673493</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431753</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -10030,28 +10030,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>102.0237506483783</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>74.81044551269508</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10276,16 +10276,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>53.65784208816518</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>1.378694014180752</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10507,7 +10507,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
@@ -10519,13 +10519,13 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>1.378694014181207</v>
+        <v>10.4237523707022</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.77393521240706</v>
+        <v>14.77393521240705</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.2830023150577</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>241.8036405588205</v>
+        <v>334.2322022722601</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>386.4252063932886</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>391.0257380076016</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>101.3806056120901</v>
       </c>
       <c r="T11" t="n">
-        <v>185.895994119202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.5887207466848</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>288.5632282961436</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>349.2802613300461</v>
       </c>
       <c r="Y11" t="n">
         <v>365.7870993076307</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1646336697895</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>125.9831232981463</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9702086745084</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>126.5170105670819</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>83.38630313085955</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.67219462618056</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>200.161537791301</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>79.76104475530624</v>
       </c>
       <c r="W13" t="n">
-        <v>118.2294345227593</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>205.2588160406143</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.133814003672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>131.8811418242379</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>368.3626053784825</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.674321424947</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.4817315956732</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>310.7275283541842</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>237.5778261431569</v>
+        <v>331.2176603152401</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>21.662395096007</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>201.7336080848761</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>180.0712129888659</v>
       </c>
     </row>
     <row r="17">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61445.72540377788</v>
+        <v>61445.72540377787</v>
       </c>
       <c r="C2" t="n">
-        <v>61445.72540377787</v>
+        <v>61445.72540377786</v>
       </c>
       <c r="D2" t="n">
-        <v>61448.88235352517</v>
+        <v>61448.88235352516</v>
       </c>
       <c r="E2" t="n">
         <v>49201.68808261879</v>
@@ -26326,34 +26326,34 @@
         <v>56251.18764238623</v>
       </c>
       <c r="G2" t="n">
-        <v>61578.13273982132</v>
+        <v>61578.13273982133</v>
       </c>
       <c r="H2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.1327398213</v>
       </c>
       <c r="I2" t="n">
-        <v>61578.13273982133</v>
+        <v>61578.13273982129</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="K2" t="n">
+        <v>61578.13273982116</v>
+      </c>
+      <c r="L2" t="n">
         <v>61578.13273982118</v>
       </c>
-      <c r="L2" t="n">
-        <v>61578.13273982117</v>
-      </c>
       <c r="M2" t="n">
-        <v>61578.13273982132</v>
+        <v>61578.13273982131</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982131</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982131</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.1327398213</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.1327398213</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982132</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>112652.3317030124</v>
+        <v>112652.3317030138</v>
       </c>
       <c r="E3" t="n">
-        <v>873064.1422095095</v>
+        <v>873064.1422095078</v>
       </c>
       <c r="F3" t="n">
-        <v>172008.5015608269</v>
+        <v>172008.5015608271</v>
       </c>
       <c r="G3" t="n">
-        <v>47337.02389190081</v>
+        <v>47337.02389190077</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>19303.17247647454</v>
       </c>
       <c r="K3" t="n">
-        <v>16770.33007928783</v>
+        <v>16770.33007928789</v>
       </c>
       <c r="L3" t="n">
-        <v>47337.0238919008</v>
+        <v>47337.02389190077</v>
       </c>
       <c r="M3" t="n">
-        <v>161226.3376931559</v>
+        <v>161226.337693156</v>
       </c>
       <c r="N3" t="n">
-        <v>41425.84091389794</v>
+        <v>41425.84091389783</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,40 +26421,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>421768.1011935032</v>
+        <v>421768.1011935027</v>
       </c>
       <c r="E4" t="n">
-        <v>48306.99980317955</v>
+        <v>48306.99980317964</v>
       </c>
       <c r="F4" t="n">
-        <v>54789.43521839488</v>
+        <v>54789.43521839503</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657689</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657689</v>
+        <v>93774.137826577</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657692</v>
+        <v>93774.137826577</v>
       </c>
       <c r="J4" t="n">
-        <v>94538.12497809286</v>
+        <v>94538.12497809289</v>
       </c>
       <c r="K4" t="n">
         <v>95465.08003076463</v>
       </c>
       <c r="L4" t="n">
-        <v>95465.0800307646</v>
+        <v>95465.08003076463</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657703</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657695</v>
       </c>
       <c r="P4" t="n">
         <v>93774.137826577</v>
@@ -26473,16 +26473,16 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36495.16268711823</v>
+        <v>36495.16268711827</v>
       </c>
       <c r="E5" t="n">
-        <v>62733.36411102006</v>
+        <v>62733.36411102003</v>
       </c>
       <c r="F5" t="n">
         <v>77544.12697928961</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="H5" t="n">
         <v>82518.59730624987</v>
@@ -26500,10 +26500,10 @@
         <v>87728.20329125514</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624988</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-439797.8345279533</v>
+        <v>-439802.2481058215</v>
       </c>
       <c r="C6" t="n">
-        <v>-439797.8345279534</v>
+        <v>-439802.2481058215</v>
       </c>
       <c r="D6" t="n">
-        <v>-509466.7132301087</v>
+        <v>-509471.0215763195</v>
       </c>
       <c r="E6" t="n">
-        <v>-934902.8180410904</v>
+        <v>-935315.3661963288</v>
       </c>
       <c r="F6" t="n">
-        <v>-248090.8761161251</v>
+        <v>-248268.4409527067</v>
       </c>
       <c r="G6" t="n">
         <v>-162051.6262849062</v>
       </c>
       <c r="H6" t="n">
-        <v>-114714.6023930054</v>
+        <v>-114714.6023930056</v>
       </c>
       <c r="I6" t="n">
-        <v>-114714.6023930055</v>
+        <v>-114714.6023930056</v>
       </c>
       <c r="J6" t="n">
         <v>-137548.090192749</v>
       </c>
       <c r="K6" t="n">
-        <v>-138385.4806614864</v>
+        <v>-138385.4806614865</v>
       </c>
       <c r="L6" t="n">
         <v>-168952.1744740994</v>
       </c>
       <c r="M6" t="n">
-        <v>-275940.9400861615</v>
+        <v>-275940.9400861616</v>
       </c>
       <c r="N6" t="n">
-        <v>-156140.4433069035</v>
+        <v>-156140.4433069033</v>
       </c>
       <c r="O6" t="n">
-        <v>-114714.6023930056</v>
+        <v>-114714.6023930055</v>
       </c>
       <c r="P6" t="n">
         <v>-114714.6023930056</v>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="F2" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="K2" t="n">
         <v>59.17127986487601</v>
@@ -26716,16 +26716,16 @@
         <v>59.17127986487601</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="O2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="P2" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035885</v>
+        <v>131.5395728035901</v>
       </c>
       <c r="E3" t="n">
-        <v>951.7573395787573</v>
+        <v>951.7573395787568</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838911</v>
+        <v>662.2659949838909</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>905.1779321282052</v>
+        <v>905.1779321282049</v>
       </c>
       <c r="K4" t="n">
         <v>970.3388304500161</v>
@@ -26820,13 +26820,13 @@
         <v>970.3388304500161</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842289</v>
       </c>
       <c r="F2" t="n">
-        <v>18.06260101480598</v>
+        <v>18.06260101480606</v>
       </c>
       <c r="G2" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487596</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487596</v>
       </c>
       <c r="M2" t="n">
         <v>38.51344036322894</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>131.5395728035885</v>
+        <v>131.5395728035901</v>
       </c>
       <c r="E3" t="n">
-        <v>820.2177667751688</v>
+        <v>820.2177667751668</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0193610145412</v>
+        <v>138.0193610145415</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>662.2659949838911</v>
+        <v>662.2659949838909</v>
       </c>
       <c r="F4" t="n">
         <v>169.135460418402</v>
@@ -27036,16 +27036,16 @@
         <v>73.77647672591206</v>
       </c>
       <c r="K4" t="n">
-        <v>65.16089832181092</v>
+        <v>65.16089832181115</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.3286199361679</v>
+        <v>523.3286199361681</v>
       </c>
       <c r="N4" t="n">
-        <v>169.135460418402</v>
+        <v>169.1354604184015</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842289</v>
       </c>
       <c r="K2" t="n">
-        <v>18.06260101480598</v>
+        <v>18.06260101480606</v>
       </c>
       <c r="L2" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>662.2659949838911</v>
+        <v>662.2659949838909</v>
       </c>
       <c r="N4" t="n">
         <v>169.135460418402</v>
@@ -27868,43 +27868,43 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>334.0592055329541</v>
+        <v>334.059205532954</v>
       </c>
       <c r="I8" t="n">
-        <v>190.0892387944849</v>
+        <v>190.0892387944847</v>
       </c>
       <c r="J8" t="n">
-        <v>136.1644700855262</v>
+        <v>136.1644700855256</v>
       </c>
       <c r="K8" t="n">
-        <v>152.8242151293445</v>
+        <v>152.8242151293437</v>
       </c>
       <c r="L8" t="n">
-        <v>152.3174455822393</v>
+        <v>152.3174455822383</v>
       </c>
       <c r="M8" t="n">
-        <v>137.4931758883859</v>
+        <v>137.4931758883847</v>
       </c>
       <c r="N8" t="n">
-        <v>135.0575467150782</v>
+        <v>135.057546715077</v>
       </c>
       <c r="O8" t="n">
-        <v>141.0009724379254</v>
+        <v>141.0009724379243</v>
       </c>
       <c r="P8" t="n">
-        <v>155.1905636201056</v>
+        <v>155.1905636201047</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.2009902057318</v>
+        <v>165.2009902057311</v>
       </c>
       <c r="R8" t="n">
-        <v>182.3681601653948</v>
+        <v>182.3681601653944</v>
       </c>
       <c r="S8" t="n">
-        <v>196.9699871128312</v>
+        <v>196.969987112831</v>
       </c>
       <c r="T8" t="n">
-        <v>220.7810174839396</v>
+        <v>220.7810174839395</v>
       </c>
       <c r="U8" t="n">
         <v>251.3033487236183</v>
@@ -27950,34 +27950,34 @@
         <v>109.5028957524068</v>
       </c>
       <c r="I9" t="n">
-        <v>89.78100597633802</v>
+        <v>89.78100597633789</v>
       </c>
       <c r="J9" t="n">
-        <v>100.1065517821186</v>
+        <v>100.1065517821182</v>
       </c>
       <c r="K9" t="n">
-        <v>92.15377433370128</v>
+        <v>92.15377433370071</v>
       </c>
       <c r="L9" t="n">
-        <v>77.12167646250015</v>
+        <v>77.12167646249938</v>
       </c>
       <c r="M9" t="n">
-        <v>70.44496674406261</v>
+        <v>70.44496674406172</v>
       </c>
       <c r="N9" t="n">
-        <v>57.75524861465412</v>
+        <v>57.7552486146532</v>
       </c>
       <c r="O9" t="n">
-        <v>75.27900665315893</v>
+        <v>75.27900665315809</v>
       </c>
       <c r="P9" t="n">
-        <v>79.94638929430539</v>
+        <v>79.94638929430471</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.865474775874</v>
+        <v>103.8654747758735</v>
       </c>
       <c r="R9" t="n">
-        <v>128.1127662978545</v>
+        <v>128.1127662978543</v>
       </c>
       <c r="S9" t="n">
         <v>166.4277928885246</v>
@@ -28026,37 +28026,37 @@
         <v>167.7537768501244</v>
       </c>
       <c r="H10" t="n">
-        <v>160.1182265697034</v>
+        <v>160.1182265697033</v>
       </c>
       <c r="I10" t="n">
-        <v>148.3171485857129</v>
+        <v>148.3171485857128</v>
       </c>
       <c r="J10" t="n">
-        <v>110.2252041001583</v>
+        <v>110.2252041001581</v>
       </c>
       <c r="K10" t="n">
-        <v>101.4546394749639</v>
+        <v>101.4546394749636</v>
       </c>
       <c r="L10" t="n">
-        <v>99.61913245124015</v>
+        <v>99.61913245123972</v>
       </c>
       <c r="M10" t="n">
-        <v>101.7432125729776</v>
+        <v>101.7432125729771</v>
       </c>
       <c r="N10" t="n">
-        <v>91.38709153076096</v>
+        <v>91.3870915307605</v>
       </c>
       <c r="O10" t="n">
-        <v>104.9290420920035</v>
+        <v>104.9290420920031</v>
       </c>
       <c r="P10" t="n">
-        <v>109.0394388593289</v>
+        <v>109.0394388593286</v>
       </c>
       <c r="Q10" t="n">
-        <v>131.642526136104</v>
+        <v>131.6425261361037</v>
       </c>
       <c r="R10" t="n">
-        <v>166.6279040478818</v>
+        <v>166.6279040478817</v>
       </c>
       <c r="S10" t="n">
         <v>219.8828052326365</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="C11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="D11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="E11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="F11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="G11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="H11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="I11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="T11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="U11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="V11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="W11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="X11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="C12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="D12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="E12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="F12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="G12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="H12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="I12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="J12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="K12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="L12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="M12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="N12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="O12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="P12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="R12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="S12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="T12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="U12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="V12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="W12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="X12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="C13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="D13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="E13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="F13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="G13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="H13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="I13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="J13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="K13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="L13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="M13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="N13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="O13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="P13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="R13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="S13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="T13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="U13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="V13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="W13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="X13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.45083934842283</v>
+        <v>20.45083934842288</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="15">
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="C16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="D16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="E16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="F16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="G16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="H16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="I16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="J16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="K16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="L16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="M16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="N16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="P16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="R16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="S16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="T16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="U16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="V16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="W16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="X16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.51344036322881</v>
+        <v>38.51344036322894</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>97.68472022810482</v>
+        <v>76.32843350416093</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.66073332242831</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-6.679101716144942e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>86.4133008804846</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.41330088048635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810482</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
-        <v>76.32843350416226</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810482</v>
+        <v>86.41330088048454</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810482</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,37 +29272,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="C26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="D26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="E26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="F26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="G26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="H26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>24.76644541134505</v>
       </c>
       <c r="L26" t="n">
-        <v>60.42339651810215</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -29314,34 +29314,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>77.23388087968199</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="R26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="S26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="T26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="U26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="V26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="W26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="X26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="Y26" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="C28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="D28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="E28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="F28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="G28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="H28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="I28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="J28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="K28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="L28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="M28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="N28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="O28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="P28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="R28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="S28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="T28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="U28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="V28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="W28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="X28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
       <c r="Y28" t="n">
-        <v>77.23388087968199</v>
+        <v>77.23388087968206</v>
       </c>
     </row>
     <row r="29">
@@ -29545,7 +29545,7 @@
         <v>59.17127986487601</v>
       </c>
       <c r="N29" t="n">
-        <v>59.17127986487601</v>
+        <v>59.17127986487606</v>
       </c>
       <c r="O29" t="n">
         <v>59.17127986487601</v>
@@ -29794,7 +29794,7 @@
         <v>59.17127986487601</v>
       </c>
       <c r="R32" t="n">
-        <v>59.17127986487567</v>
+        <v>59.17127986487601</v>
       </c>
       <c r="S32" t="n">
         <v>59.17127986487601</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.5769297729281</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048525</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>86.4133008804846</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R37" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>86.41330088048551</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.41330088048454</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M43" t="n">
-        <v>86.41330088048454</v>
+        <v>86.41330088048525</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R43" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810496</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>76.32843350415962</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.41330088048454</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810496</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5288023027279934</v>
+        <v>0.5288023027280001</v>
       </c>
       <c r="H8" t="n">
-        <v>5.415596582813064</v>
+        <v>5.415596582813132</v>
       </c>
       <c r="I8" t="n">
-        <v>20.38665077592099</v>
+        <v>20.38665077592124</v>
       </c>
       <c r="J8" t="n">
-        <v>44.88143444116007</v>
+        <v>44.88143444116064</v>
       </c>
       <c r="K8" t="n">
-        <v>67.26563591563605</v>
+        <v>67.26563591563689</v>
       </c>
       <c r="L8" t="n">
-        <v>83.44896938774789</v>
+        <v>83.44896938774895</v>
       </c>
       <c r="M8" t="n">
-        <v>92.85305733888684</v>
+        <v>92.85305733888801</v>
       </c>
       <c r="N8" t="n">
-        <v>94.35551688151277</v>
+        <v>94.35551688151395</v>
       </c>
       <c r="O8" t="n">
-        <v>89.09723898376127</v>
+        <v>89.0972389837624</v>
       </c>
       <c r="P8" t="n">
-        <v>76.04243213516392</v>
+        <v>76.04243213516487</v>
       </c>
       <c r="Q8" t="n">
-        <v>57.10469966871764</v>
+        <v>57.10469966871836</v>
       </c>
       <c r="R8" t="n">
-        <v>33.21737764873735</v>
+        <v>33.21737764873777</v>
       </c>
       <c r="S8" t="n">
-        <v>12.05008247341416</v>
+        <v>12.05008247341431</v>
       </c>
       <c r="T8" t="n">
-        <v>2.314832080191792</v>
+        <v>2.314832080191822</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04230418421823947</v>
+        <v>0.04230418421824</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2829341754643224</v>
+        <v>0.2829341754643259</v>
       </c>
       <c r="H9" t="n">
-        <v>2.73254848408964</v>
+        <v>2.732548484089675</v>
       </c>
       <c r="I9" t="n">
-        <v>9.741374023661978</v>
+        <v>9.7413740236621</v>
       </c>
       <c r="J9" t="n">
-        <v>26.73107488454811</v>
+        <v>26.73107488454844</v>
       </c>
       <c r="K9" t="n">
-        <v>45.68766464065771</v>
+        <v>45.68766464065828</v>
       </c>
       <c r="L9" t="n">
-        <v>61.43270331737403</v>
+        <v>61.43270331737481</v>
       </c>
       <c r="M9" t="n">
-        <v>71.68906717795571</v>
+        <v>71.6890671779566</v>
       </c>
       <c r="N9" t="n">
-        <v>73.58646346867918</v>
+        <v>73.58646346868011</v>
       </c>
       <c r="O9" t="n">
-        <v>67.31723779128551</v>
+        <v>67.31723779128635</v>
       </c>
       <c r="P9" t="n">
-        <v>54.02801812002486</v>
+        <v>54.02801812002554</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.11629931014754</v>
+        <v>36.11629931014799</v>
       </c>
       <c r="R9" t="n">
-        <v>17.56673766610943</v>
+        <v>17.56673766610965</v>
       </c>
       <c r="S9" t="n">
-        <v>5.255378215313177</v>
+        <v>5.255378215313243</v>
       </c>
       <c r="T9" t="n">
-        <v>1.14042327741979</v>
+        <v>1.140423277419804</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01861409049107385</v>
+        <v>0.01861409049107408</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2372025083343398</v>
+        <v>0.2372025083343428</v>
       </c>
       <c r="H10" t="n">
-        <v>2.108945937736223</v>
+        <v>2.108945937736249</v>
       </c>
       <c r="I10" t="n">
-        <v>7.133326341545422</v>
+        <v>7.133326341545511</v>
       </c>
       <c r="J10" t="n">
-        <v>16.77021733923782</v>
+        <v>16.77021733923804</v>
       </c>
       <c r="K10" t="n">
-        <v>27.55861869557148</v>
+        <v>27.55861869557182</v>
       </c>
       <c r="L10" t="n">
-        <v>35.26554382999813</v>
+        <v>35.26554382999857</v>
       </c>
       <c r="M10" t="n">
-        <v>37.18257137462746</v>
+        <v>37.18257137462793</v>
       </c>
       <c r="N10" t="n">
-        <v>36.29845293447223</v>
+        <v>36.29845293447269</v>
       </c>
       <c r="O10" t="n">
-        <v>33.52749635983925</v>
+        <v>33.52749635983967</v>
       </c>
       <c r="P10" t="n">
-        <v>28.68856518981869</v>
+        <v>28.68856518981905</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.86247549334186</v>
+        <v>19.86247549334211</v>
       </c>
       <c r="R10" t="n">
-        <v>10.66548732928768</v>
+        <v>10.66548732928781</v>
       </c>
       <c r="S10" t="n">
-        <v>4.133792804335721</v>
+        <v>4.133792804335773</v>
       </c>
       <c r="T10" t="n">
-        <v>1.013501626519452</v>
+        <v>1.013501626519465</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01293831863641855</v>
+        <v>0.01293831863641871</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.826160159110579</v>
+        <v>3.826160159110577</v>
       </c>
       <c r="H11" t="n">
-        <v>39.18466272949123</v>
+        <v>39.18466272949121</v>
       </c>
       <c r="I11" t="n">
         <v>147.5080395341107</v>
       </c>
       <c r="J11" t="n">
-        <v>324.7405608043118</v>
+        <v>324.7405608043117</v>
       </c>
       <c r="K11" t="n">
-        <v>486.7019203394627</v>
+        <v>486.7019203394625</v>
       </c>
       <c r="L11" t="n">
-        <v>603.7967693088433</v>
+        <v>603.796769308843</v>
       </c>
       <c r="M11" t="n">
-        <v>671.840245038426</v>
+        <v>671.8402450384257</v>
       </c>
       <c r="N11" t="n">
-        <v>682.711322590499</v>
+        <v>682.7113225904986</v>
       </c>
       <c r="O11" t="n">
-        <v>644.6649425083431</v>
+        <v>644.6649425083428</v>
       </c>
       <c r="P11" t="n">
-        <v>550.2066135803005</v>
+        <v>550.2066135803003</v>
       </c>
       <c r="Q11" t="n">
-        <v>413.1822528821529</v>
+        <v>413.1822528821526</v>
       </c>
       <c r="R11" t="n">
-        <v>240.3450330947301</v>
+        <v>240.34503309473</v>
       </c>
       <c r="S11" t="n">
-        <v>87.18862462573242</v>
+        <v>87.18862462573237</v>
       </c>
       <c r="T11" t="n">
-        <v>16.74901609650657</v>
+        <v>16.74901609650656</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3060928127288463</v>
+        <v>0.3060928127288461</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.04717616437695</v>
+        <v>2.047176164376949</v>
       </c>
       <c r="H12" t="n">
-        <v>19.77141190332475</v>
+        <v>19.77141190332474</v>
       </c>
       <c r="I12" t="n">
-        <v>70.48391618578533</v>
+        <v>70.4839161857853</v>
       </c>
       <c r="J12" t="n">
-        <v>193.4132533194907</v>
+        <v>193.4132533194906</v>
       </c>
       <c r="K12" t="n">
-        <v>330.5740563327463</v>
+        <v>330.5740563327462</v>
       </c>
       <c r="L12" t="n">
-        <v>444.4976141117584</v>
+        <v>444.4976141117581</v>
       </c>
       <c r="M12" t="n">
-        <v>518.7077500704227</v>
+        <v>518.7077500704224</v>
       </c>
       <c r="N12" t="n">
-        <v>532.436400751705</v>
+        <v>532.4364007517048</v>
       </c>
       <c r="O12" t="n">
-        <v>487.0752867936683</v>
+        <v>487.0752867936681</v>
       </c>
       <c r="P12" t="n">
-        <v>390.9208589677353</v>
+        <v>390.9208589677351</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.3202416141524</v>
+        <v>261.3202416141523</v>
       </c>
       <c r="R12" t="n">
         <v>127.1044990478952</v>
       </c>
       <c r="S12" t="n">
-        <v>38.0253993690192</v>
+        <v>38.02539936901918</v>
       </c>
       <c r="T12" t="n">
-        <v>8.251556557291298</v>
+        <v>8.251556557291295</v>
       </c>
       <c r="U12" t="n">
         <v>0.1346826423932204</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.716283727109234</v>
+        <v>1.716283727109233</v>
       </c>
       <c r="H13" t="n">
-        <v>15.25932259193484</v>
+        <v>15.25932259193483</v>
       </c>
       <c r="I13" t="n">
-        <v>51.6133324479759</v>
+        <v>51.61333244797587</v>
       </c>
       <c r="J13" t="n">
-        <v>121.3412595066229</v>
+        <v>121.3412595066228</v>
       </c>
       <c r="K13" t="n">
-        <v>199.4009639314183</v>
+        <v>199.4009639314182</v>
       </c>
       <c r="L13" t="n">
-        <v>255.1645824831311</v>
+        <v>255.164582483131</v>
       </c>
       <c r="M13" t="n">
-        <v>269.0352755140411</v>
+        <v>269.035275514041</v>
       </c>
       <c r="N13" t="n">
-        <v>262.6382179857251</v>
+        <v>262.638217985725</v>
       </c>
       <c r="O13" t="n">
-        <v>242.5889035372217</v>
+        <v>242.5889035372216</v>
       </c>
       <c r="P13" t="n">
-        <v>207.5767155041931</v>
+        <v>207.576715504193</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.7153582763924</v>
+        <v>143.7153582763923</v>
       </c>
       <c r="R13" t="n">
-        <v>77.1703574025661</v>
+        <v>77.17035740256605</v>
       </c>
       <c r="S13" t="n">
-        <v>29.91014458971274</v>
+        <v>29.91014458971272</v>
       </c>
       <c r="T13" t="n">
-        <v>7.333212288557635</v>
+        <v>7.333212288557632</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09361547602414017</v>
+        <v>0.09361547602414011</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623204</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>143.6946562776255</v>
+        <v>143.6946562776254</v>
       </c>
       <c r="K11" t="n">
-        <v>266.6120692944822</v>
+        <v>266.612069294482</v>
       </c>
       <c r="L11" t="n">
-        <v>368.0303543388561</v>
+        <v>368.0303543388557</v>
       </c>
       <c r="M11" t="n">
-        <v>441.4940118111533</v>
+        <v>441.494011811153</v>
       </c>
       <c r="N11" t="n">
-        <v>453.2982589939081</v>
+        <v>453.2982589939077</v>
       </c>
       <c r="O11" t="n">
-        <v>414.5667310866563</v>
+        <v>414.5667310866561</v>
       </c>
       <c r="P11" t="n">
-        <v>318.973617825031</v>
+        <v>318.9736178250308</v>
       </c>
       <c r="Q11" t="n">
-        <v>190.8765630077034</v>
+        <v>190.8765630077031</v>
       </c>
       <c r="R11" t="n">
-        <v>24.759495280598</v>
+        <v>24.75949528059789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>87.02646600124685</v>
+        <v>87.0264660012468</v>
       </c>
       <c r="K12" t="n">
         <v>213.1834567068101</v>
       </c>
       <c r="L12" t="n">
-        <v>326.394073680307</v>
+        <v>326.3940736803069</v>
       </c>
       <c r="M12" t="n">
-        <v>397.0245554968272</v>
+        <v>397.024555496827</v>
       </c>
       <c r="N12" t="n">
-        <v>421.5455280167945</v>
+        <v>421.5455280167944</v>
       </c>
       <c r="O12" t="n">
-        <v>364.9298816976467</v>
+        <v>364.9298816976466</v>
       </c>
       <c r="P12" t="n">
-        <v>277.3972909018279</v>
+        <v>277.3972909018278</v>
       </c>
       <c r="Q12" t="n">
-        <v>141.7893068765537</v>
+        <v>141.7893068765536</v>
       </c>
       <c r="R12" t="n">
-        <v>1.875834432354111</v>
+        <v>1.87583443235409</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.43291873837292</v>
+        <v>48.4329187383729</v>
       </c>
       <c r="K13" t="n">
         <v>197.5823114539582</v>
       </c>
       <c r="L13" t="n">
-        <v>303.2054470918701</v>
+        <v>303.20544709187</v>
       </c>
       <c r="M13" t="n">
-        <v>329.0699918243046</v>
+        <v>329.0699918243045</v>
       </c>
       <c r="N13" t="n">
-        <v>327.2212297133765</v>
+        <v>327.2212297133764</v>
       </c>
       <c r="O13" t="n">
-        <v>287.6248707996842</v>
+        <v>287.6248707996841</v>
       </c>
       <c r="P13" t="n">
         <v>225.3061141175094</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.0041543731208</v>
+        <v>78.00415437312077</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>84.09185697629506</v>
+        <v>84.09185697629516</v>
       </c>
       <c r="K16" t="n">
         <v>244.5610999075485</v>
@@ -35811,7 +35811,7 @@
         <v>358.270812533427</v>
       </c>
       <c r="M16" t="n">
-        <v>386.1468197567127</v>
+        <v>386.1468197567128</v>
       </c>
       <c r="N16" t="n">
         <v>383.370386530769</v>
@@ -35820,10 +35820,10 @@
         <v>340.8665705858687</v>
       </c>
       <c r="P16" t="n">
-        <v>273.4705115083393</v>
+        <v>273.4705115083394</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.9076789011225</v>
+        <v>116.9076789011226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36036,13 +36036,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L19" t="n">
         <v>254.9673908567486</v>
@@ -36051,19 +36051,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>197.6352280591742</v>
+        <v>176.2789413352303</v>
       </c>
       <c r="Q19" t="n">
-        <v>90.71201348257054</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057507</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923332</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184477</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
         <v>254.9673908567486</v>
@@ -36291,13 +36291,13 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>225.7247647372419</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.46458104062857</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266726</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.27060879450515</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567485</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N25" t="n">
         <v>173.0392293230783</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848621</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P25" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.736000388247</v>
+        <v>99.46458104062674</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057493</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,16 +36589,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>35.65695110675611</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>268.0208818483947</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>361.9577319667455</v>
       </c>
       <c r="L26" t="n">
-        <v>516.0135109104343</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36610,7 +36610,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>475.9958670990538</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>328.0281856834015</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.17605617002488</v>
+        <v>122.8122974927483</v>
       </c>
       <c r="K28" t="n">
-        <v>176.537774079349</v>
+        <v>283.2815404240016</v>
       </c>
       <c r="L28" t="n">
-        <v>234.5165515083257</v>
+        <v>234.5165515083258</v>
       </c>
       <c r="M28" t="n">
-        <v>424.8672602731658</v>
+        <v>246.3575993637203</v>
       </c>
       <c r="N28" t="n">
-        <v>250.2731102027603</v>
+        <v>250.2731102027604</v>
       </c>
       <c r="O28" t="n">
-        <v>318.5690953848176</v>
+        <v>216.5453447364394</v>
       </c>
       <c r="P28" t="n">
-        <v>177.1843887107513</v>
+        <v>251.9948342234465</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.28516103982419</v>
+        <v>155.6281194175757</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>514.7613942572082</v>
       </c>
       <c r="M29" t="n">
-        <v>598.0923956951028</v>
+        <v>598.0923956951027</v>
       </c>
       <c r="N29" t="n">
         <v>611.4731152777875</v>
@@ -36996,16 +36996,16 @@
         <v>378.9286520350742</v>
       </c>
       <c r="M31" t="n">
-        <v>406.8046592583598</v>
+        <v>228.2949983489142</v>
       </c>
       <c r="N31" t="n">
-        <v>404.0282260324161</v>
+        <v>285.8683512761195</v>
       </c>
       <c r="O31" t="n">
-        <v>198.4827437216333</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P31" t="n">
-        <v>160.5004817101261</v>
+        <v>294.1283510099864</v>
       </c>
       <c r="Q31" t="n">
         <v>137.5655184027697</v>
@@ -37075,10 +37075,10 @@
         <v>514.7613942572082</v>
       </c>
       <c r="M32" t="n">
-        <v>598.0923956951027</v>
+        <v>598.0923956951028</v>
       </c>
       <c r="N32" t="n">
-        <v>611.4731152777874</v>
+        <v>611.4731152777875</v>
       </c>
       <c r="O32" t="n">
         <v>567.2242807530952</v>
@@ -37090,7 +37090,7 @@
         <v>309.9655846685955</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7844784071005</v>
+        <v>118.7844784071008</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>104.7496964779422</v>
       </c>
       <c r="K34" t="n">
-        <v>265.2189394091956</v>
+        <v>158.4751730645431</v>
       </c>
       <c r="L34" t="n">
         <v>378.9286520350742</v>
@@ -37239,13 +37239,13 @@
         <v>404.0282260324161</v>
       </c>
       <c r="O34" t="n">
-        <v>198.4827437216333</v>
+        <v>361.5244100875158</v>
       </c>
       <c r="P34" t="n">
-        <v>160.5004817101265</v>
+        <v>169.5455400666475</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.5655184027697</v>
+        <v>72.22256002501821</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.153159805333637e-12</v>
       </c>
       <c r="J35" t="n">
         <v>190.7870009687126</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>255.5370193645234</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>186.3638087115539</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882471</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
@@ -37710,16 +37710,16 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>259.4525302035638</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.46458104062674</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>255.5370193645227</v>
+        <v>255.5370193645234</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882471</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,22 +38169,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266868</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>249.3676628272379</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
         <v>236.9961840848623</v>
@@ -38193,10 +38193,10 @@
         <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>99.46458104062674</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057635</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
